--- a/lib/Library_architecture.xlsx
+++ b/lib/Library_architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssipvtltd-my.sharepoint.com/personal/abhinay_singh_ssinnovations_org/Documents/Abhinay's Workspace/GitHub Repo/Drivers/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="653" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2705C6C-9C5D-4A85-AA8A-4AE18C0164B8}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="11_F25DC773A252ABDACC104854799F7F145BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3674024-A60C-43C5-AED0-0F771C9296EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Constants</t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>Spline.h, .tpp</t>
+  </si>
+  <si>
+    <t>Math_general</t>
+  </si>
+  <si>
+    <t>Math_general.h, .tpp</t>
   </si>
 </sst>
 </file>
@@ -706,11 +712,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1010,40 +1016,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1075,7 +1081,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -1083,110 +1089,110 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1205,8 +1211,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,127 +1223,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1354,23 +1360,23 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B1" t="s">
@@ -1378,888 +1384,897 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="D4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="D5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="D6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="D7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="D9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="D10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="D11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="D12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="D13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="1" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="1" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="1" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="1" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="1" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="1" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="1" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="1" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="1" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="1" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="1" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="1" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="1" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="1" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="1" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="1" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="1" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="1" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:A92"/>
-    <mergeCell ref="B42:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="C78:C90"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="C27:C37"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C43:C56"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C28:C38"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C44:C57"/>
+    <mergeCell ref="A1:A93"/>
+    <mergeCell ref="B43:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B3:B38"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="C58:C70"/>
+    <mergeCell ref="C79:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
